--- a/src/main/webapp/templaters/开票信息.xlsx
+++ b/src/main/webapp/templaters/开票信息.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="8370"/>
+    <workbookView windowWidth="19100" windowHeight="7730"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,9 +16,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14">
   <si>
     <t>开票日期</t>
+  </si>
+  <si>
+    <t>订单编号</t>
   </si>
   <si>
     <t>客户名称</t>
@@ -51,6 +54,9 @@
     <t>2018-1-1</t>
   </si>
   <si>
+    <t>aa</t>
+  </si>
+  <si>
     <t>客户1</t>
   </si>
 </sst>
@@ -59,9 +65,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -79,22 +85,104 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -102,57 +190,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -166,49 +212,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -237,31 +243,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -273,151 +417,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,17 +452,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,44 +476,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -535,6 +508,39 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -551,10 +557,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -563,137 +569,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -710,9 +716,6 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1061,28 +1064,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J136"/>
+  <dimension ref="A1:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31.5" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="14.875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="19.125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="27.75" style="1" customWidth="1"/>
-    <col min="8" max="258" width="14.875" style="1" customWidth="1"/>
-    <col min="259" max="16384" width="9" style="1"/>
+    <col min="1" max="4" width="14.8727272727273" style="2" customWidth="1"/>
+    <col min="5" max="5" width="19.1272727272727" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.2545454545455" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.3727272727273" style="1" customWidth="1"/>
+    <col min="8" max="8" width="27.7545454545455" style="1" customWidth="1"/>
+    <col min="9" max="259" width="14.8727272727273" style="1" customWidth="1"/>
+    <col min="260" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
@@ -1109,78 +1112,87 @@
       <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="4" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="15" spans="1:11">
       <c r="A2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="4">
+      <c r="B2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4">
         <v>1000000</v>
       </c>
-      <c r="D2" s="5">
-        <f>C2/1.17*0.09</f>
+      <c r="E2" s="5">
+        <f>D2/1.17*0.09</f>
         <v>76923.0769230769</v>
       </c>
-      <c r="E2" s="5">
-        <f>C2/1.17*0.15</f>
+      <c r="F2" s="5">
+        <f>D2/1.17*0.15</f>
         <v>128205.128205128</v>
       </c>
-      <c r="F2" s="5">
-        <f>(D2+E2)*0.07</f>
+      <c r="G2" s="5">
+        <f>(E2+F2)*0.07</f>
         <v>14358.9743589744</v>
       </c>
-      <c r="G2" s="5">
-        <f>(D2+E2)*0.05</f>
+      <c r="H2" s="5">
+        <f>(E2+F2)*0.05</f>
         <v>10256.4102564103</v>
       </c>
-      <c r="H2" s="5">
-        <f>SUM(D2:G2)</f>
+      <c r="I2" s="5">
+        <f>SUM(E2:H2)</f>
         <v>229743.58974359</v>
       </c>
-      <c r="I2" s="8">
-        <f>C2/1.17*0.28</f>
+      <c r="J2" s="5">
+        <f>D2/1.17*0.28</f>
         <v>239316.239316239</v>
       </c>
-      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
     </row>
-    <row r="3" ht="14.25" spans="1:10">
+    <row r="3" ht="15" spans="1:11">
       <c r="A3" s="6"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
+      <c r="D3" s="6"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
     </row>
-    <row r="4" ht="14.25" spans="1:10">
+    <row r="4" ht="15" spans="1:11">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
-      <c r="D4" s="7"/>
+      <c r="D4" s="6"/>
       <c r="E4" s="7"/>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="7"/>
       <c r="I4" s="7"/>
       <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
     </row>
-    <row r="5" ht="14.25" spans="1:10">
+    <row r="5" ht="15" spans="1:11">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
-      <c r="D5" s="7"/>
+      <c r="D5" s="6"/>
       <c r="E5" s="7"/>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
     </row>
     <row r="6" ht="15" customHeight="1"/>
     <row r="7" ht="15" customHeight="1"/>
@@ -1329,7 +1341,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1346,7 +1358,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <sheetData/>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
